--- a/data/trans_orig/rlab_2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/rlab_2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D46CF04-D999-4884-A6A0-72A99A6BDAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0E97A0B-D39A-48A2-B301-E7B462FB99B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DF78B129-965C-40FD-ACD6-2465598381B2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A8FDFB50-BCAE-4AE1-BB26-167885BE734D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="239">
   <si>
     <t>Manejar o tocar sustancias o productos peligrosos / solo 2007 en 2007 (Tasa respuesta: 43,05%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>67,5%</t>
   </si>
   <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
   </si>
   <si>
     <t>86,12%</t>
   </si>
   <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
   </si>
   <si>
     <t>75,79%</t>
   </si>
   <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>22,55%</t>
   </si>
   <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
   </si>
   <si>
     <t>9,99%</t>
   </si>
   <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
   </si>
   <si>
     <t>16,96%</t>
   </si>
   <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,10 +134,10 @@
     <t>6,6%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
   </si>
   <si>
     <t>3,24%</t>
@@ -146,16 +146,16 @@
     <t>0,76%</t>
   </si>
   <si>
-    <t>8,21%</t>
+    <t>8,48%</t>
   </si>
   <si>
     <t>5,1%</t>
   </si>
   <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,10 +164,10 @@
     <t>3,35%</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
   </si>
   <si>
     <t>0,65%</t>
@@ -176,16 +176,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>3,66%</t>
+    <t>3,72%</t>
   </si>
   <si>
     <t>2,15%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,556 +197,559 @@
     <t>79,38%</t>
   </si>
   <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
   </si>
   <si>
     <t>87,84%</t>
   </si>
   <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
   </si>
   <si>
     <t>82,6%</t>
   </si>
   <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
   </si>
   <si>
     <t>11,9%</t>
   </si>
   <si>
-    <t>9,21%</t>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
   </si>
   <si>
     <t>14,73%</t>
   </si>
   <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
   </si>
   <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
   </si>
   <si>
     <t>7,98%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
     <t>3,45%</t>
   </si>
   <si>
-    <t>2,41%</t>
+    <t>2,38%</t>
   </si>
   <si>
     <t>5,62%</t>
   </si>
   <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
+    <t>1,74%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1161,7 +1164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F41E751-2F5D-4213-820C-DFD4254D9993}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560492AE-6C31-44E8-A185-C0E9455B18D0}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1805,7 +1808,7 @@
         <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>236</v>
@@ -1814,13 +1817,13 @@
         <v>250234</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>633</v>
@@ -1829,13 +1832,13 @@
         <v>660749</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1850,13 +1853,13 @@
         <v>101609</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>31</v>
@@ -1865,13 +1868,13 @@
         <v>32147</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>128</v>
@@ -1880,13 +1883,13 @@
         <v>133755</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1901,13 +1904,13 @@
         <v>39895</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -1916,13 +1919,13 @@
         <v>14294</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -1931,13 +1934,13 @@
         <v>54189</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1952,13 +1955,13 @@
         <v>15595</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -1967,13 +1970,13 @@
         <v>6730</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -1982,13 +1985,13 @@
         <v>22325</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2044,7 +2047,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2056,13 +2059,13 @@
         <v>325373</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>133</v>
@@ -2071,13 +2074,13 @@
         <v>140117</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>437</v>
@@ -2086,13 +2089,13 @@
         <v>465490</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2107,13 +2110,13 @@
         <v>75359</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>22</v>
@@ -2122,10 +2125,10 @@
         <v>22458</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>139</v>
@@ -2164,7 +2167,7 @@
         <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -2173,7 +2176,7 @@
         <v>5213</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>146</v>
@@ -2191,10 +2194,10 @@
         <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>34</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2209,13 +2212,13 @@
         <v>13077</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2224,13 +2227,13 @@
         <v>1013</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -2239,13 +2242,13 @@
         <v>14090</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2301,7 +2304,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2313,13 +2316,13 @@
         <v>108857</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="H24" s="7">
         <v>54</v>
@@ -2343,13 +2346,13 @@
         <v>164870</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2364,13 +2367,13 @@
         <v>31747</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -2379,13 +2382,13 @@
         <v>5036</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M25" s="7">
         <v>37</v>
@@ -2394,10 +2397,10 @@
         <v>36783</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>174</v>
@@ -2881,10 +2884,10 @@
         <v>215</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>63</v>
+        <v>216</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H35" s="7">
         <v>96</v>
@@ -2893,13 +2896,13 @@
         <v>101450</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M35" s="7">
         <v>395</v>
@@ -2908,13 +2911,13 @@
         <v>416112</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>104</v>
+        <v>222</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,13 +2932,13 @@
         <v>129296</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H36" s="7">
         <v>33</v>
@@ -2944,13 +2947,13 @@
         <v>35251</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="M36" s="7">
         <v>162</v>
@@ -2959,13 +2962,13 @@
         <v>164547</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2980,13 +2983,13 @@
         <v>52460</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>46</v>
+        <v>233</v>
       </c>
       <c r="H37" s="7">
         <v>14</v>
@@ -2995,13 +2998,13 @@
         <v>14587</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>231</v>
+        <v>74</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M37" s="7">
         <v>64</v>
@@ -3010,13 +3013,13 @@
         <v>67047</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>236</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3072,7 +3075,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/rlab_2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/rlab_2-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0E97A0B-D39A-48A2-B301-E7B462FB99B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5F3C7CF-9A18-4234-9075-47573CBAD19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A8FDFB50-BCAE-4AE1-BB26-167885BE734D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1482B994-02BF-4C76-AC7E-D0F60BAFDCD5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="243">
   <si>
     <t>Manejar o tocar sustancias o productos peligrosos / solo 2007 en 2007 (Tasa respuesta: 43,05%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>67,5%</t>
   </si>
   <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
   </si>
   <si>
     <t>86,12%</t>
   </si>
   <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
   </si>
   <si>
     <t>75,79%</t>
   </si>
   <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>22,55%</t>
   </si>
   <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
   </si>
   <si>
     <t>9,99%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
   </si>
   <si>
     <t>16,96%</t>
   </si>
   <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,10 +134,10 @@
     <t>6,6%</t>
   </si>
   <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
   </si>
   <si>
     <t>3,24%</t>
@@ -146,7 +146,7 @@
     <t>0,76%</t>
   </si>
   <si>
-    <t>8,48%</t>
+    <t>8,39%</t>
   </si>
   <si>
     <t>5,1%</t>
@@ -155,7 +155,7 @@
     <t>3,09%</t>
   </si>
   <si>
-    <t>8,07%</t>
+    <t>8,13%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,10 +164,10 @@
     <t>3,35%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
   </si>
   <si>
     <t>0,65%</t>
@@ -176,580 +176,592 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>3,72%</t>
+    <t>3,34%</t>
   </si>
   <si>
     <t>2,15%</t>
   </si>
   <si>
-    <t>0,9%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
   </si>
   <si>
     <t>4,04%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
   </si>
   <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>1,74%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1164,7 +1176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560492AE-6C31-44E8-A185-C0E9455B18D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1325CEA0-7230-4859-8CAD-FEB39BEA80E0}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2128,10 +2140,10 @@
         <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>91</v>
@@ -2140,13 +2152,13 @@
         <v>97817</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2161,13 +2173,13 @@
         <v>23451</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -2179,10 +2191,10 @@
         <v>38</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>27</v>
@@ -2191,13 +2203,13 @@
         <v>28664</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2212,13 +2224,13 @@
         <v>13077</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2227,13 +2239,13 @@
         <v>1013</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -2242,13 +2254,13 @@
         <v>14090</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,7 +2316,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2316,13 +2328,13 @@
         <v>108857</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>54</v>
@@ -2331,13 +2343,13 @@
         <v>56014</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>164</v>
@@ -2346,13 +2358,13 @@
         <v>164870</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2367,13 +2379,13 @@
         <v>31747</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -2382,13 +2394,13 @@
         <v>5036</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>37</v>
@@ -2397,13 +2409,13 @@
         <v>36783</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2418,13 +2430,13 @@
         <v>18038</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2433,13 +2445,13 @@
         <v>2221</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>21</v>
@@ -2448,13 +2460,13 @@
         <v>20259</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2469,13 +2481,13 @@
         <v>4726</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -2484,13 +2496,13 @@
         <v>1013</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>6</v>
@@ -2499,13 +2511,13 @@
         <v>5739</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2561,7 +2573,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2573,13 +2585,13 @@
         <v>4063</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -2588,10 +2600,10 @@
         <v>3621</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>50</v>
@@ -2603,13 +2615,13 @@
         <v>7684</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2627,10 +2639,10 @@
         <v>45</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2642,10 +2654,10 @@
         <v>45</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2657,10 +2669,10 @@
         <v>45</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2675,13 +2687,13 @@
         <v>975</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2693,10 +2705,10 @@
         <v>45</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -2705,13 +2717,13 @@
         <v>975</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2729,10 +2741,10 @@
         <v>45</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2744,10 +2756,10 @@
         <v>45</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2759,10 +2771,10 @@
         <v>45</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2830,13 +2842,13 @@
         <v>1408996</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H34" s="7">
         <v>836</v>
@@ -2845,13 +2857,13 @@
         <v>871937</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M34" s="7">
         <v>2182</v>
@@ -2860,13 +2872,13 @@
         <v>2280933</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2881,13 +2893,13 @@
         <v>314662</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H35" s="7">
         <v>96</v>
@@ -2896,13 +2908,13 @@
         <v>101450</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M35" s="7">
         <v>395</v>
@@ -2911,13 +2923,13 @@
         <v>416112</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2932,13 +2944,13 @@
         <v>129296</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H36" s="7">
         <v>33</v>
@@ -2947,13 +2959,13 @@
         <v>35251</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>75</v>
+        <v>230</v>
       </c>
       <c r="M36" s="7">
         <v>162</v>
@@ -2962,13 +2974,13 @@
         <v>164547</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,10 +2998,10 @@
         <v>116</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H37" s="7">
         <v>14</v>
@@ -2998,13 +3010,13 @@
         <v>14587</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>74</v>
+        <v>236</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M37" s="7">
         <v>64</v>
@@ -3013,13 +3025,13 @@
         <v>67047</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>183</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,7 +3087,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/rlab_2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/rlab_2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5F3C7CF-9A18-4234-9075-47573CBAD19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1593E5FD-BB6D-4756-8914-E94567FF0A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1482B994-02BF-4C76-AC7E-D0F60BAFDCD5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{00B18687-8E5C-4BE4-82D3-D51A5145E0B4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="238">
   <si>
     <t>Manejar o tocar sustancias o productos peligrosos / solo 2007 en 2007 (Tasa respuesta: 43,05%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>67,5%</t>
   </si>
   <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
   </si>
   <si>
     <t>86,12%</t>
   </si>
   <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
   </si>
   <si>
     <t>75,79%</t>
   </si>
   <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>22,55%</t>
   </si>
   <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
   </si>
   <si>
     <t>9,99%</t>
   </si>
   <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
   </si>
   <si>
     <t>16,96%</t>
   </si>
   <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,10 +134,10 @@
     <t>6,6%</t>
   </si>
   <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
   </si>
   <si>
     <t>3,24%</t>
@@ -146,475 +146,469 @@
     <t>0,76%</t>
   </si>
   <si>
-    <t>8,39%</t>
+    <t>8,21%</t>
   </si>
   <si>
     <t>5,1%</t>
   </si>
   <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
     <t>3,09%</t>
   </si>
   <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
   </si>
   <si>
     <t>1,16%</t>
   </si>
   <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
+    <t>4,92%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -623,7 +617,7 @@
     <t>80,65%</t>
   </si>
   <si>
-    <t>25,9%</t>
+    <t>17,35%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -635,7 +629,7 @@
     <t>88,74%</t>
   </si>
   <si>
-    <t>53,55%</t>
+    <t>51,81%</t>
   </si>
   <si>
     <t>0%</t>
@@ -653,115 +647,106 @@
     <t>19,35%</t>
   </si>
   <si>
-    <t>74,1%</t>
+    <t>82,65%</t>
   </si>
   <si>
     <t>11,26%</t>
   </si>
   <si>
-    <t>46,45%</t>
+    <t>48,19%</t>
   </si>
   <si>
     <t>73,95%</t>
   </si>
   <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
   </si>
   <si>
     <t>85,21%</t>
   </si>
   <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
   </si>
   <si>
     <t>77,88%</t>
   </si>
   <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
   </si>
   <si>
     <t>16,51%</t>
   </si>
   <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
+    <t>18,29%</t>
   </si>
   <si>
     <t>9,91%</t>
   </si>
   <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
   </si>
   <si>
     <t>14,21%</t>
   </si>
   <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
+    <t>15,72%</t>
   </si>
   <si>
     <t>6,79%</t>
   </si>
   <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
   </si>
   <si>
     <t>3,45%</t>
   </si>
   <si>
-    <t>4,85%</t>
+    <t>2,41%</t>
   </si>
   <si>
     <t>5,62%</t>
   </si>
   <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
   </si>
   <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1176,7 +1161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1325CEA0-7230-4859-8CAD-FEB39BEA80E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9327EA2-6EA2-4C0C-A0CC-15687249CFA9}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1820,7 +1805,7 @@
         <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="H14" s="7">
         <v>236</v>
@@ -1829,13 +1814,13 @@
         <v>250234</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>633</v>
@@ -1844,13 +1829,13 @@
         <v>660749</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1865,13 +1850,13 @@
         <v>101609</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>31</v>
@@ -1880,13 +1865,13 @@
         <v>32147</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>128</v>
@@ -1895,13 +1880,13 @@
         <v>133755</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1916,13 +1901,13 @@
         <v>39895</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -1931,13 +1916,13 @@
         <v>14294</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -1946,13 +1931,13 @@
         <v>54189</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1967,13 +1952,13 @@
         <v>15595</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -1982,13 +1967,13 @@
         <v>6730</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -1997,13 +1982,13 @@
         <v>22325</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2059,7 +2044,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2071,13 +2056,13 @@
         <v>325373</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>133</v>
@@ -2086,13 +2071,13 @@
         <v>140117</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>437</v>
@@ -2101,13 +2086,13 @@
         <v>465490</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2122,13 +2107,13 @@
         <v>75359</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>22</v>
@@ -2137,13 +2122,13 @@
         <v>22458</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>91</v>
@@ -2152,13 +2137,13 @@
         <v>97817</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2173,13 +2158,13 @@
         <v>23451</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="G21" s="7" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -2188,13 +2173,13 @@
         <v>5213</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>27</v>
@@ -2203,13 +2188,13 @@
         <v>28664</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,13 +2209,13 @@
         <v>13077</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2239,13 +2224,13 @@
         <v>1013</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -2254,13 +2239,13 @@
         <v>14090</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2316,7 +2301,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2328,13 +2313,13 @@
         <v>108857</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H24" s="7">
         <v>54</v>
@@ -2343,13 +2328,13 @@
         <v>56014</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M24" s="7">
         <v>164</v>
@@ -2358,13 +2343,13 @@
         <v>164870</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2379,13 +2364,13 @@
         <v>31747</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -2394,13 +2379,13 @@
         <v>5036</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M25" s="7">
         <v>37</v>
@@ -2409,13 +2394,13 @@
         <v>36783</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>33</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2430,13 +2415,13 @@
         <v>18038</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2445,13 +2430,13 @@
         <v>2221</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M26" s="7">
         <v>21</v>
@@ -2460,13 +2445,13 @@
         <v>20259</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2481,13 +2466,13 @@
         <v>4726</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -2496,13 +2481,13 @@
         <v>1013</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M27" s="7">
         <v>6</v>
@@ -2511,13 +2496,13 @@
         <v>5739</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>48</v>
+        <v>189</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2573,7 +2558,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2585,13 +2570,13 @@
         <v>4063</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -2600,10 +2585,10 @@
         <v>3621</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>50</v>
@@ -2615,13 +2600,13 @@
         <v>7684</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2639,10 +2624,10 @@
         <v>45</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2654,10 +2639,10 @@
         <v>45</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2669,10 +2654,10 @@
         <v>45</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2672,13 @@
         <v>975</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2705,10 +2690,10 @@
         <v>45</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -2717,13 +2702,13 @@
         <v>975</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2741,10 +2726,10 @@
         <v>45</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2756,10 +2741,10 @@
         <v>45</v>
       </c>
       <c r="K32" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2771,10 +2756,10 @@
         <v>45</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,13 +2827,13 @@
         <v>1408996</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H34" s="7">
         <v>836</v>
@@ -2857,13 +2842,13 @@
         <v>871937</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M34" s="7">
         <v>2182</v>
@@ -2872,13 +2857,13 @@
         <v>2280933</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,13 +2878,13 @@
         <v>314662</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>218</v>
+        <v>63</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H35" s="7">
         <v>96</v>
@@ -2908,13 +2893,13 @@
         <v>101450</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M35" s="7">
         <v>395</v>
@@ -2923,13 +2908,13 @@
         <v>416112</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,13 +2929,13 @@
         <v>129296</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H36" s="7">
         <v>33</v>
@@ -2959,13 +2944,13 @@
         <v>35251</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>230</v>
+        <v>117</v>
       </c>
       <c r="M36" s="7">
         <v>162</v>
@@ -2974,13 +2959,13 @@
         <v>164547</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,13 +2980,13 @@
         <v>52460</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>235</v>
+        <v>46</v>
       </c>
       <c r="H37" s="7">
         <v>14</v>
@@ -3010,13 +2995,13 @@
         <v>14587</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M37" s="7">
         <v>64</v>
@@ -3025,13 +3010,13 @@
         <v>67047</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,7 +3072,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/rlab_2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/rlab_2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1593E5FD-BB6D-4756-8914-E94567FF0A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1FE1299-8D93-43CC-BCD0-4A05452ABF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{00B18687-8E5C-4BE4-82D3-D51A5145E0B4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D46D9909-58ED-413D-A0E0-9651D3E0469D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="240">
   <si>
     <t>Manejar o tocar sustancias o productos peligrosos / solo 2007 en 2007 (Tasa respuesta: 43,05%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -191,7 +191,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>79,38%</t>
@@ -302,7 +302,7 @@
     <t>3,37%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>72,32%</t>
@@ -410,7 +410,7 @@
     <t>3,78%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>74,41%</t>
@@ -509,7 +509,7 @@
     <t>4,0%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>66,63%</t>
@@ -611,13 +611,10 @@
     <t>4,92%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>62,03%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -626,34 +623,43 @@
     <t>63,75%</t>
   </si>
   <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>30,57%</t>
+    <t>56,93%</t>
   </si>
   <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
   </si>
   <si>
     <t>73,95%</t>
@@ -1161,8 +1167,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9327EA2-6EA2-4C0C-A0CC-15687249CFA9}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B41D6A-9FD1-42A1-9B90-CCFB797FF052}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2564,19 +2570,19 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>4063</v>
+        <v>1593</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>192</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -2585,28 +2591,28 @@
         <v>3621</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M29" s="7">
+        <v>5</v>
+      </c>
+      <c r="N29" s="7">
+        <v>5213</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="L29" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M29" s="7">
-        <v>8</v>
-      </c>
-      <c r="N29" s="7">
-        <v>7684</v>
-      </c>
-      <c r="O29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>197</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2624,10 +2630,10 @@
         <v>45</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2639,10 +2645,10 @@
         <v>45</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2654,10 +2660,10 @@
         <v>45</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,13 +2678,13 @@
         <v>975</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2690,10 +2696,10 @@
         <v>45</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -2702,13 +2708,13 @@
         <v>975</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2726,10 +2732,10 @@
         <v>45</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2741,10 +2747,10 @@
         <v>45</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2756,10 +2762,10 @@
         <v>45</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2768,10 +2774,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" s="7">
-        <v>5038</v>
+        <v>2568</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -2798,10 +2804,10 @@
         <v>50</v>
       </c>
       <c r="M33" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N33" s="7">
-        <v>8659</v>
+        <v>6188</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -2815,55 +2821,53 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>204</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>1346</v>
+        <v>3</v>
       </c>
       <c r="D34" s="7">
-        <v>1408996</v>
+        <v>2471</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H34" s="7">
-        <v>836</v>
-      </c>
-      <c r="I34" s="7">
-        <v>871937</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>209</v>
-      </c>
       <c r="K34" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M34" s="7">
-        <v>2182</v>
+        <v>3</v>
       </c>
       <c r="N34" s="7">
-        <v>2280933</v>
+        <v>2471</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>214</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2872,49 +2876,47 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>299</v>
+        <v>0</v>
       </c>
       <c r="D35" s="7">
-        <v>314662</v>
+        <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>215</v>
+        <v>45</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>63</v>
+        <v>197</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="H35" s="7">
-        <v>96</v>
-      </c>
-      <c r="I35" s="7">
-        <v>101450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" s="7"/>
       <c r="J35" s="7" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="M35" s="7">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="N35" s="7">
-        <v>416112</v>
+        <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>104</v>
+        <v>197</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2923,49 +2925,47 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="D36" s="7">
-        <v>129296</v>
+        <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>222</v>
+        <v>45</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="H36" s="7">
-        <v>33</v>
-      </c>
-      <c r="I36" s="7">
-        <v>35251</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" s="7"/>
       <c r="J36" s="7" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c r="M36" s="7">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="N36" s="7">
-        <v>164547</v>
+        <v>0</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2974,49 +2974,47 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D37" s="7">
-        <v>52460</v>
+        <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>46</v>
+        <v>207</v>
       </c>
       <c r="H37" s="7">
-        <v>14</v>
-      </c>
-      <c r="I37" s="7">
-        <v>14587</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" s="7"/>
       <c r="J37" s="7" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="M37" s="7">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="N37" s="7">
-        <v>67047</v>
+        <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>234</v>
+        <v>45</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,63 +3023,319 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>3</v>
+      </c>
+      <c r="D38" s="7">
+        <v>2471</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="M38" s="7">
+        <v>3</v>
+      </c>
+      <c r="N38" s="7">
+        <v>2471</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1346</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1408996</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H39" s="7">
+        <v>836</v>
+      </c>
+      <c r="I39" s="7">
+        <v>871937</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="M39" s="7">
+        <v>2182</v>
+      </c>
+      <c r="N39" s="7">
+        <v>2280933</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>299</v>
+      </c>
+      <c r="D40" s="7">
+        <v>314662</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H40" s="7">
+        <v>96</v>
+      </c>
+      <c r="I40" s="7">
+        <v>101450</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="M40" s="7">
+        <v>395</v>
+      </c>
+      <c r="N40" s="7">
+        <v>416112</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>129</v>
+      </c>
+      <c r="D41" s="7">
+        <v>129296</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H41" s="7">
+        <v>33</v>
+      </c>
+      <c r="I41" s="7">
+        <v>35251</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M41" s="7">
+        <v>162</v>
+      </c>
+      <c r="N41" s="7">
+        <v>164547</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>50</v>
+      </c>
+      <c r="D42" s="7">
+        <v>52460</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" s="7">
+        <v>14</v>
+      </c>
+      <c r="I42" s="7">
+        <v>14587</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="M42" s="7">
+        <v>64</v>
+      </c>
+      <c r="N42" s="7">
+        <v>67047</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>1824</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D43" s="7">
         <v>1905414</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="E43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="7">
         <v>979</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>1023226</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="7">
         <v>2803</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>2928640</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>237</v>
+      <c r="O43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
